--- a/runs/run420/NotionalETEOutput420.xlsx
+++ b/runs/run420/NotionalETEOutput420.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER2_State_Update</t>
+    <t>Missile_HELLMASKER3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER2_248.MISSILE_HELLMASKER2_248</t>
+    <t>MISSILE_HELLMASKER3_206.MISSILE_HELLMASKER3_206</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER2</t>
+    <t>MISSILE_HELLMASKER3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1460.218038382798</v>
+        <v>-1542.886736709681</v>
       </c>
       <c r="J2">
-        <v>2028.55740798027</v>
+        <v>2053.90446237849</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1461.982656521925</v>
+        <v>-1543.616561591127</v>
       </c>
       <c r="J3">
-        <v>2046.764323440778</v>
+        <v>1933.602030948062</v>
       </c>
       <c r="K3">
-        <v>306.6342390636881</v>
+        <v>293.6900775893665</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1505.245419058717</v>
+        <v>-1413.862117460236</v>
       </c>
       <c r="J4">
-        <v>1959.84889509328</v>
+        <v>1965.319846590779</v>
       </c>
       <c r="K4">
-        <v>609.4518922952345</v>
+        <v>565.5608057157478</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1349.427547406474</v>
+        <v>-1350.261203675695</v>
       </c>
       <c r="J5">
-        <v>1837.15369930349</v>
+        <v>1890.93972960013</v>
       </c>
       <c r="K5">
-        <v>851.7370687641951</v>
+        <v>843.7463568922947</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1331.441383493858</v>
+        <v>-1326.368330495547</v>
       </c>
       <c r="J6">
-        <v>1858.001440692063</v>
+        <v>1750.180288461867</v>
       </c>
       <c r="K6">
-        <v>1086.554959092595</v>
+        <v>1112.255716908064</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1360.032943551927</v>
+        <v>-1280.813888639419</v>
       </c>
       <c r="J7">
-        <v>1750.8710319017</v>
+        <v>1818.624995573311</v>
       </c>
       <c r="K7">
-        <v>1413.381590612474</v>
+        <v>1327.678381276455</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1321.542809892843</v>
+        <v>-1286.437255667447</v>
       </c>
       <c r="J8">
-        <v>1788.819872332133</v>
+        <v>1675.533637581974</v>
       </c>
       <c r="K8">
-        <v>1655.508183109522</v>
+        <v>1519.11624684255</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-102.9427526849796</v>
+        <v>-101.1691934589001</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1220.979994226183</v>
+        <v>-1296.053413934792</v>
       </c>
       <c r="J9">
-        <v>1648.757345076982</v>
+        <v>1594.672598885365</v>
       </c>
       <c r="K9">
-        <v>1890.077707908792</v>
+        <v>1752.49718463138</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>210.6967140927224</v>
+        <v>216.3324875108713</v>
       </c>
       <c r="G10">
-        <v>-80.6083778859164</v>
+        <v>-87.25643229064814</v>
       </c>
       <c r="H10">
-        <v>846.4240745830457</v>
+        <v>842.3979337462802</v>
       </c>
       <c r="I10">
-        <v>-1278.719188155374</v>
+        <v>-1263.993920970434</v>
       </c>
       <c r="J10">
-        <v>1599.837039872921</v>
+        <v>1552.715132972778</v>
       </c>
       <c r="K10">
-        <v>2074.092071660466</v>
+        <v>2002.478919544381</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>175.2540474451282</v>
+        <v>161.0512998623033</v>
       </c>
       <c r="G11">
-        <v>-65.97990307814921</v>
+        <v>-68.48093131929592</v>
       </c>
       <c r="H11">
-        <v>1059.233865235298</v>
+        <v>1109.047701886295</v>
       </c>
       <c r="I11">
-        <v>-1192.38522367673</v>
+        <v>-1179.834903478323</v>
       </c>
       <c r="J11">
-        <v>1544.652132337571</v>
+        <v>1595.641607226107</v>
       </c>
       <c r="K11">
-        <v>2233.348764206348</v>
+        <v>2093.343864723125</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>143.0937075682518</v>
+        <v>146.5798838158416</v>
       </c>
       <c r="G12">
-        <v>-48.17718010794447</v>
+        <v>-49.76548032194394</v>
       </c>
       <c r="H12">
-        <v>1175.917736585159</v>
+        <v>1120.724108713252</v>
       </c>
       <c r="I12">
-        <v>-1193.581046678153</v>
+        <v>-1179.4414127974</v>
       </c>
       <c r="J12">
-        <v>1575.362273447127</v>
+        <v>1538.972512298108</v>
       </c>
       <c r="K12">
-        <v>2413.154350774224</v>
+        <v>2290.293346318885</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>123.4354876044319</v>
+        <v>122.9862002547667</v>
       </c>
       <c r="G13">
-        <v>-32.68226641233166</v>
+        <v>-34.03835219798247</v>
       </c>
       <c r="H13">
-        <v>1279.371142365947</v>
+        <v>1251.782171917137</v>
       </c>
       <c r="I13">
-        <v>-1134.076510274211</v>
+        <v>-1171.570904683679</v>
       </c>
       <c r="J13">
-        <v>1479.120179620136</v>
+        <v>1417.415643318842</v>
       </c>
       <c r="K13">
-        <v>2565.065175820911</v>
+        <v>2414.49235039903</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>113.7848771639308</v>
+        <v>107.0302525586393</v>
       </c>
       <c r="G14">
-        <v>-17.27467822945782</v>
+        <v>-17.95167012212899</v>
       </c>
       <c r="H14">
-        <v>1346.266862361027</v>
+        <v>1311.108838610079</v>
       </c>
       <c r="I14">
-        <v>-1043.609380508516</v>
+        <v>-1084.609996336681</v>
       </c>
       <c r="J14">
-        <v>1365.441739331594</v>
+        <v>1452.034464703648</v>
       </c>
       <c r="K14">
-        <v>2594.128100821194</v>
+        <v>2608.956531297666</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>95.80483160566725</v>
+        <v>103.849564322833</v>
       </c>
       <c r="G15">
-        <v>-0.9583226094505818</v>
+        <v>-0.9259099701706698</v>
       </c>
       <c r="H15">
-        <v>1354.41196881323</v>
+        <v>1359.317722789508</v>
       </c>
       <c r="I15">
-        <v>-1035.830178636481</v>
+        <v>-1025.790007939225</v>
       </c>
       <c r="J15">
-        <v>1395.814168448032</v>
+        <v>1422.736174113362</v>
       </c>
       <c r="K15">
-        <v>2790.137519822178</v>
+        <v>2690.002245778941</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>88.18950230350295</v>
+        <v>96.70916718737526</v>
       </c>
       <c r="G16">
-        <v>15.24730718850268</v>
+        <v>15.90202977862844</v>
       </c>
       <c r="H16">
-        <v>1415.140022326683</v>
+        <v>1449.750540564045</v>
       </c>
       <c r="I16">
-        <v>-976.2449727941779</v>
+        <v>-1053.313175712096</v>
       </c>
       <c r="J16">
-        <v>1264.18196916276</v>
+        <v>1276.177969034399</v>
       </c>
       <c r="K16">
-        <v>2961.931408263527</v>
+        <v>2862.226440499578</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>84.47587738065333</v>
+        <v>88.22030042632987</v>
       </c>
       <c r="G17">
-        <v>33.26992380648999</v>
+        <v>33.10847657235886</v>
       </c>
       <c r="H17">
-        <v>1409.78580080837</v>
+        <v>1402.18456203664</v>
       </c>
       <c r="I17">
-        <v>-1007.06123573386</v>
+        <v>-982.7293245100823</v>
       </c>
       <c r="J17">
-        <v>1283.527780142246</v>
+        <v>1239.247174542</v>
       </c>
       <c r="K17">
-        <v>3016.866681841528</v>
+        <v>3021.353336125086</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>83.93437288386333</v>
+        <v>79.79911583883313</v>
       </c>
       <c r="G18">
-        <v>47.60998717469436</v>
+        <v>46.69809247069317</v>
       </c>
       <c r="H18">
-        <v>1563.947485433958</v>
+        <v>1527.88062830627</v>
       </c>
       <c r="I18">
-        <v>-930.7981376743928</v>
+        <v>-950.3192497611449</v>
       </c>
       <c r="J18">
-        <v>1281.447286033712</v>
+        <v>1262.926062824625</v>
       </c>
       <c r="K18">
-        <v>3005.837211938182</v>
+        <v>3153.500611276529</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>77.0947690884794</v>
+        <v>75.94071922211387</v>
       </c>
       <c r="G19">
-        <v>64.53442789276681</v>
+        <v>62.05538597728994</v>
       </c>
       <c r="H19">
-        <v>1584.899726256321</v>
+        <v>1562.759031635478</v>
       </c>
       <c r="I19">
-        <v>-884.0871590328933</v>
+        <v>-921.4763721110916</v>
       </c>
       <c r="J19">
-        <v>1157.754740547299</v>
+        <v>1191.622362689709</v>
       </c>
       <c r="K19">
-        <v>3002.296275896035</v>
+        <v>3250.679327814864</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>77.43693279926664</v>
+        <v>73.92902777403448</v>
       </c>
       <c r="G20">
-        <v>77.56747652798713</v>
+        <v>82.61847103402734</v>
       </c>
       <c r="H20">
-        <v>1513.215134042626</v>
+        <v>1567.124202413247</v>
       </c>
       <c r="I20">
-        <v>-862.2720511448713</v>
+        <v>-831.3017500985542</v>
       </c>
       <c r="J20">
-        <v>1153.300404684774</v>
+        <v>1153.390383686029</v>
       </c>
       <c r="K20">
-        <v>3306.460724460531</v>
+        <v>3153.30314937159</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>72.48686202303305</v>
+        <v>73.82729067292944</v>
       </c>
       <c r="G21">
-        <v>99.08801268461626</v>
+        <v>95.5502607017406</v>
       </c>
       <c r="H21">
-        <v>1654.483202698342</v>
+        <v>1630.800333957815</v>
       </c>
       <c r="I21">
-        <v>-781.3379699156015</v>
+        <v>-767.4904451925511</v>
       </c>
       <c r="J21">
-        <v>1024.300448281696</v>
+        <v>1103.951678664311</v>
       </c>
       <c r="K21">
-        <v>3149.753705068059</v>
+        <v>3166.741408065336</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>70.88363245605973</v>
+        <v>68.94925069397837</v>
       </c>
       <c r="G22">
-        <v>116.5655863065521</v>
+        <v>110.18529831263</v>
       </c>
       <c r="H22">
-        <v>1691.990841948899</v>
+        <v>1586.805841174983</v>
       </c>
       <c r="I22">
-        <v>-771.9940745435568</v>
+        <v>-738.052434308831</v>
       </c>
       <c r="J22">
-        <v>1041.421292561248</v>
+        <v>1011.789009923137</v>
       </c>
       <c r="K22">
-        <v>3302.131777816204</v>
+        <v>3110.091069920867</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>67.76394554319315</v>
+        <v>65.65674929183793</v>
       </c>
       <c r="G23">
-        <v>130.5674237032344</v>
+        <v>131.1218665221718</v>
       </c>
       <c r="H23">
-        <v>1653.050657239641</v>
+        <v>1698.086984191647</v>
       </c>
       <c r="I23">
-        <v>-682.7759020522781</v>
+        <v>-670.8104717031263</v>
       </c>
       <c r="J23">
-        <v>1012.455046693468</v>
+        <v>977.6111473133997</v>
       </c>
       <c r="K23">
-        <v>3318.274011055476</v>
+        <v>3201.635577427274</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>62.25493674977452</v>
+        <v>61.02989598189372</v>
       </c>
       <c r="G24">
-        <v>153.7886136589988</v>
+        <v>145.3439356064659</v>
       </c>
       <c r="H24">
-        <v>1623.824843394697</v>
+        <v>1690.494219389044</v>
       </c>
       <c r="I24">
-        <v>-659.6576119127167</v>
+        <v>-648.4849639535172</v>
       </c>
       <c r="J24">
-        <v>910.0372732727603</v>
+        <v>916.3655763725906</v>
       </c>
       <c r="K24">
-        <v>3299.986266572219</v>
+        <v>3069.314060224484</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.74393216681636</v>
+        <v>62.52874081208761</v>
       </c>
       <c r="G25">
-        <v>157.6486801692098</v>
+        <v>166.7614403306733</v>
       </c>
       <c r="H25">
-        <v>1635.326272209631</v>
+        <v>1746.862152779301</v>
       </c>
       <c r="I25">
-        <v>-621.8281518097135</v>
+        <v>-612.0226149622189</v>
       </c>
       <c r="J25">
-        <v>883.4237875623079</v>
+        <v>902.3649927428241</v>
       </c>
       <c r="K25">
-        <v>3105.260686893615</v>
+        <v>3049.603891881123</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.61396834584065</v>
+        <v>57.28979892506022</v>
       </c>
       <c r="G26">
-        <v>178.7180967165223</v>
+        <v>177.0733739028036</v>
       </c>
       <c r="H26">
-        <v>1678.128324790916</v>
+        <v>1677.495555825226</v>
       </c>
       <c r="I26">
-        <v>-572.0465359548627</v>
+        <v>-559.3333842343013</v>
       </c>
       <c r="J26">
-        <v>814.0332416809536</v>
+        <v>862.2189175966851</v>
       </c>
       <c r="K26">
-        <v>3262.337524005336</v>
+        <v>3033.685241102462</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.04886466236556</v>
+        <v>59.13175131347784</v>
       </c>
       <c r="G27">
-        <v>204.5431539866664</v>
+        <v>193.0404205302456</v>
       </c>
       <c r="H27">
-        <v>1757.860389292323</v>
+        <v>1738.97341625634</v>
       </c>
       <c r="I27">
-        <v>-473.8648053855778</v>
+        <v>-489.0810952107914</v>
       </c>
       <c r="J27">
-        <v>750.509355438573</v>
+        <v>754.4490228896022</v>
       </c>
       <c r="K27">
-        <v>2961.918738172908</v>
+        <v>3024.245205821212</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.4444167125518</v>
+        <v>56.67778064415623</v>
       </c>
       <c r="G28">
-        <v>222.4208742857858</v>
+        <v>221.0609767592789</v>
       </c>
       <c r="H28">
-        <v>1650.350403616365</v>
+        <v>1751.794616529072</v>
       </c>
       <c r="I28">
-        <v>-427.3202907361446</v>
+        <v>-417.3281017177771</v>
       </c>
       <c r="J28">
-        <v>716.3856740122715</v>
+        <v>750.5037643013607</v>
       </c>
       <c r="K28">
-        <v>2841.550499369304</v>
+        <v>2953.641849740908</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>56.08086989547308</v>
+        <v>55.77108835400065</v>
       </c>
       <c r="G29">
-        <v>239.0129894804848</v>
+        <v>222.1363847007491</v>
       </c>
       <c r="H29">
-        <v>1696.650978615909</v>
+        <v>1719.966314633494</v>
       </c>
       <c r="I29">
-        <v>-364.678973312613</v>
+        <v>-364.5681914658637</v>
       </c>
       <c r="J29">
-        <v>703.2025303946814</v>
+        <v>695.8817209970849</v>
       </c>
       <c r="K29">
-        <v>2822.548765177837</v>
+        <v>2833.436043223214</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.03172976918062</v>
+        <v>55.82302810686198</v>
       </c>
       <c r="G30">
-        <v>251.4700590033035</v>
+        <v>258.4751209427804</v>
       </c>
       <c r="H30">
-        <v>1753.840298053257</v>
+        <v>1765.591213942581</v>
       </c>
       <c r="I30">
-        <v>-324.7298469157702</v>
+        <v>-310.5660785848593</v>
       </c>
       <c r="J30">
-        <v>660.4940797182284</v>
+        <v>654.593374570833</v>
       </c>
       <c r="K30">
-        <v>2893.180896402338</v>
+        <v>2895.225104864036</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.98831925593119</v>
+        <v>53.57345423182996</v>
       </c>
       <c r="G31">
-        <v>254.548192627387</v>
+        <v>274.1499542153474</v>
       </c>
       <c r="H31">
-        <v>1835.000612300666</v>
+        <v>1850.717755507548</v>
       </c>
       <c r="I31">
-        <v>-264.9433812409775</v>
+        <v>-271.1175260527459</v>
       </c>
       <c r="J31">
-        <v>595.4846801362339</v>
+        <v>598.1123244663255</v>
       </c>
       <c r="K31">
-        <v>2715.157923663889</v>
+        <v>2544.316785262484</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>52.21855056485597</v>
+        <v>52.80279277630622</v>
       </c>
       <c r="G32">
-        <v>270.1926397414425</v>
+        <v>280.8682500823425</v>
       </c>
       <c r="H32">
-        <v>1765.665255392551</v>
+        <v>1750.59208428896</v>
       </c>
       <c r="I32">
-        <v>-199.5453749913033</v>
+        <v>-208.5597176139448</v>
       </c>
       <c r="J32">
-        <v>537.3023773831194</v>
+        <v>521.6365207389383</v>
       </c>
       <c r="K32">
-        <v>2483.300184539915</v>
+        <v>2631.306748382649</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.87589256739831</v>
+        <v>51.95658945855629</v>
       </c>
       <c r="G33">
-        <v>309.1689765996334</v>
+        <v>287.1592489429707</v>
       </c>
       <c r="H33">
-        <v>1775.018921533818</v>
+        <v>1743.089590157861</v>
       </c>
       <c r="I33">
-        <v>-141.6925918594005</v>
+        <v>-143.6002077013015</v>
       </c>
       <c r="J33">
-        <v>507.9052185827881</v>
+        <v>479.9766446531422</v>
       </c>
       <c r="K33">
-        <v>2388.124986141829</v>
+        <v>2350.094571511974</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.32210137406348</v>
+        <v>50.86400549429494</v>
       </c>
       <c r="G34">
-        <v>305.9260243972205</v>
+        <v>309.5372345441373</v>
       </c>
       <c r="H34">
-        <v>1749.430458226851</v>
+        <v>1819.470791948174</v>
       </c>
       <c r="I34">
-        <v>-86.68212284985718</v>
+        <v>-85.6967716409703</v>
       </c>
       <c r="J34">
-        <v>454.0428530967872</v>
+        <v>447.9175104165209</v>
       </c>
       <c r="K34">
-        <v>2287.451369488156</v>
+        <v>2291.8046160886</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.48037202239378</v>
+        <v>46.22551509170613</v>
       </c>
       <c r="G35">
-        <v>317.0633596953244</v>
+        <v>315.1690615610522</v>
       </c>
       <c r="H35">
-        <v>1736.896096333001</v>
+        <v>1855.448167626848</v>
       </c>
       <c r="I35">
-        <v>-19.13482578747666</v>
+        <v>-19.31586692386409</v>
       </c>
       <c r="J35">
-        <v>385.1704340208432</v>
+        <v>385.1457271211865</v>
       </c>
       <c r="K35">
-        <v>2063.657248710281</v>
+        <v>1937.453034258335</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>48.60265947805876</v>
+        <v>46.41695922606224</v>
       </c>
       <c r="G36">
-        <v>351.3257831906093</v>
+        <v>358.1526666440865</v>
       </c>
       <c r="H36">
-        <v>1836.235887159707</v>
+        <v>1919.733283296963</v>
       </c>
       <c r="I36">
-        <v>49.28795983554808</v>
+        <v>48.74699752613634</v>
       </c>
       <c r="J36">
-        <v>329.6290801627165</v>
+        <v>338.6458197878885</v>
       </c>
       <c r="K36">
-        <v>1807.476784529706</v>
+        <v>1837.15698462247</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.43232738512183</v>
+        <v>47.63464972231793</v>
       </c>
       <c r="G37">
-        <v>378.9548430108923</v>
+        <v>372.8345311924589</v>
       </c>
       <c r="H37">
-        <v>1828.645049221883</v>
+        <v>1806.481975763115</v>
       </c>
       <c r="I37">
-        <v>109.674730645045</v>
+        <v>115.2955524073133</v>
       </c>
       <c r="J37">
-        <v>298.9921051546041</v>
+        <v>295.650235445785</v>
       </c>
       <c r="K37">
-        <v>1607.621284760327</v>
+        <v>1695.779156779163</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>43.53111537132811</v>
+        <v>44.39610749461401</v>
       </c>
       <c r="G38">
-        <v>393.5517380038888</v>
+        <v>383.0519626829255</v>
       </c>
       <c r="H38">
-        <v>1905.07128481895</v>
+        <v>1860.759847016056</v>
       </c>
       <c r="I38">
-        <v>188.9145478450881</v>
+        <v>176.4721528335062</v>
       </c>
       <c r="J38">
-        <v>243.9740246689917</v>
+        <v>252.7684922550652</v>
       </c>
       <c r="K38">
-        <v>1346.042667301178</v>
+        <v>1439.918284345395</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.21098448271763</v>
+        <v>45.81218577282961</v>
       </c>
       <c r="G39">
-        <v>386.2282140149194</v>
+        <v>390.6581768597536</v>
       </c>
       <c r="H39">
-        <v>1941.053502672493</v>
+        <v>1909.861954950486</v>
       </c>
       <c r="I39">
-        <v>267.2208721836315</v>
+        <v>262.2420349518746</v>
       </c>
       <c r="J39">
-        <v>199.5505778793748</v>
+        <v>194.1414418078229</v>
       </c>
       <c r="K39">
-        <v>1204.203760286044</v>
+        <v>1178.07907639273</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>46.21453215595125</v>
+        <v>42.06638226104739</v>
       </c>
       <c r="G40">
-        <v>426.8211443455615</v>
+        <v>399.4888563299491</v>
       </c>
       <c r="H40">
-        <v>1805.535715909596</v>
+        <v>1817.689785133131</v>
       </c>
       <c r="I40">
-        <v>319.2213621669325</v>
+        <v>317.8992115884996</v>
       </c>
       <c r="J40">
-        <v>151.7346963053974</v>
+        <v>149.0953713267063</v>
       </c>
       <c r="K40">
-        <v>927.862237438907</v>
+        <v>875.6855400460111</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.90759099731512</v>
+        <v>45.57942374604473</v>
       </c>
       <c r="G41">
-        <v>415.9511042361299</v>
+        <v>434.4586860593813</v>
       </c>
       <c r="H41">
-        <v>1914.969434142462</v>
+        <v>1865.10753493038</v>
       </c>
       <c r="I41">
-        <v>390.5847926324863</v>
+        <v>387.938853622386</v>
       </c>
       <c r="J41">
-        <v>102.5186179795652</v>
+        <v>99.0423914813565</v>
       </c>
       <c r="K41">
-        <v>623.4834111707108</v>
+        <v>645.1939535250954</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.70033956351645</v>
+        <v>43.95061162215573</v>
       </c>
       <c r="G42">
-        <v>459.8866985725717</v>
+        <v>439.5127933752161</v>
       </c>
       <c r="H42">
-        <v>1942.833677360737</v>
+        <v>1916.932090059405</v>
       </c>
       <c r="I42">
-        <v>478.9247186287924</v>
+        <v>456.4660397903352</v>
       </c>
       <c r="J42">
-        <v>51.72314804469433</v>
+        <v>51.89101172910713</v>
       </c>
       <c r="K42">
-        <v>338.4329101534203</v>
+        <v>322.0715930280786</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.42543619808121</v>
+        <v>44.26561708098837</v>
       </c>
       <c r="G43">
-        <v>467.3827653646798</v>
+        <v>481.9541035934062</v>
       </c>
       <c r="H43">
-        <v>1863.86351107984</v>
+        <v>1877.223446276894</v>
       </c>
       <c r="I43">
-        <v>567.9728142063032</v>
+        <v>545.791590480891</v>
       </c>
       <c r="J43">
-        <v>5.431748267472332</v>
+        <v>5.253686306263525</v>
       </c>
       <c r="K43">
-        <v>32.92601098017172</v>
+        <v>33.48046753174371</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.01464241821398</v>
+        <v>42.01906571220356</v>
       </c>
       <c r="G44">
-        <v>461.4605812534929</v>
+        <v>495.6504240739615</v>
       </c>
       <c r="H44">
-        <v>1833.450670158315</v>
+        <v>1974.41629264222</v>
       </c>
       <c r="I44">
-        <v>646.6500792575638</v>
+        <v>650.9157969442998</v>
       </c>
       <c r="J44">
-        <v>-44.53532414002542</v>
+        <v>-41.99445348322666</v>
       </c>
       <c r="K44">
-        <v>-280.316655707099</v>
+        <v>-279.5455265544011</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.35329249886666</v>
+        <v>39.45561406081047</v>
       </c>
       <c r="G45">
-        <v>499.5361699356809</v>
+        <v>510.3991656112356</v>
       </c>
       <c r="H45">
-        <v>1821.658442315625</v>
+        <v>1894.880582155878</v>
       </c>
       <c r="I45">
-        <v>704.0818380857201</v>
+        <v>728.956785340205</v>
       </c>
       <c r="J45">
-        <v>-90.59256022497438</v>
+        <v>-89.88846654229182</v>
       </c>
       <c r="K45">
-        <v>-626.3947415037026</v>
+        <v>-625.8935932820192</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.67628458417065</v>
+        <v>38.86560393082038</v>
       </c>
       <c r="G46">
-        <v>513.0772440117039</v>
+        <v>531.8227191984491</v>
       </c>
       <c r="H46">
-        <v>1989.242961640867</v>
+        <v>1988.855968297451</v>
       </c>
       <c r="I46">
-        <v>838.5768829345667</v>
+        <v>791.1504741541379</v>
       </c>
       <c r="J46">
-        <v>-140.9365154559383</v>
+        <v>-140.4137847272096</v>
       </c>
       <c r="K46">
-        <v>-948.1568718942061</v>
+        <v>-1003.674363938785</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.71535728391123</v>
+        <v>38.85781269175824</v>
       </c>
       <c r="G47">
-        <v>537.3001637282102</v>
+        <v>503.1068283249472</v>
       </c>
       <c r="H47">
-        <v>1844.252840158183</v>
+        <v>2019.259701567414</v>
       </c>
       <c r="I47">
-        <v>883.6592592235653</v>
+        <v>883.3518861011023</v>
       </c>
       <c r="J47">
-        <v>-190.7826003168537</v>
+        <v>-190.3381770669735</v>
       </c>
       <c r="K47">
-        <v>-1364.13362350008</v>
+        <v>-1294.24971470499</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.14964847851341</v>
+        <v>38.06673493536966</v>
       </c>
       <c r="G48">
-        <v>566.4776576661404</v>
+        <v>531.1617466105273</v>
       </c>
       <c r="H48">
-        <v>1845.073135517478</v>
+        <v>2024.879889929832</v>
       </c>
       <c r="I48">
-        <v>1004.043207859125</v>
+        <v>1008.292207286596</v>
       </c>
       <c r="J48">
-        <v>-233.919412303789</v>
+        <v>-248.9468706890808</v>
       </c>
       <c r="K48">
-        <v>-1682.948774356254</v>
+        <v>-1660.634612427544</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.3707539250705</v>
+        <v>40.3628704142438</v>
       </c>
       <c r="G49">
-        <v>555.3940356260641</v>
+        <v>550.0262700894856</v>
       </c>
       <c r="H49">
-        <v>1900.005661217616</v>
+        <v>1930.140167816279</v>
       </c>
       <c r="I49">
-        <v>1076.650842776802</v>
+        <v>1040.391569648132</v>
       </c>
       <c r="J49">
-        <v>-272.8476729490431</v>
+        <v>-288.6741782896375</v>
       </c>
       <c r="K49">
-        <v>-2004.542835837689</v>
+        <v>-2113.152307452122</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.64154943112213</v>
+        <v>37.50720261133321</v>
       </c>
       <c r="G50">
-        <v>553.1513713098165</v>
+        <v>573.4557804854397</v>
       </c>
       <c r="H50">
-        <v>1874.607940941848</v>
+        <v>2002.199642122874</v>
       </c>
       <c r="I50">
-        <v>1215.068173251355</v>
+        <v>1184.894627616887</v>
       </c>
       <c r="J50">
-        <v>-331.3274939608382</v>
+        <v>-341.8587438410864</v>
       </c>
       <c r="K50">
-        <v>-2380.470715733757</v>
+        <v>-2527.970477389304</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.80219624881487</v>
+        <v>36.58207606411067</v>
       </c>
       <c r="G51">
-        <v>610.5118856142118</v>
+        <v>586.8622398036968</v>
       </c>
       <c r="H51">
-        <v>2050.916892524527</v>
+        <v>1894.836620370515</v>
       </c>
       <c r="I51">
-        <v>1299.047122340305</v>
+        <v>1290.586367731252</v>
       </c>
       <c r="J51">
-        <v>-382.68428130542</v>
+        <v>-398.3570703529289</v>
       </c>
       <c r="K51">
-        <v>-2891.188971552772</v>
+        <v>-2831.618653087623</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>39.05718566927567</v>
+        <v>36.49980760260054</v>
       </c>
       <c r="G52">
-        <v>633.3908060267677</v>
+        <v>601.6104024118193</v>
       </c>
       <c r="H52">
-        <v>1899.1400208284</v>
+        <v>2026.782749593985</v>
       </c>
       <c r="I52">
-        <v>1352.667709166876</v>
+        <v>1314.808025162425</v>
       </c>
       <c r="J52">
-        <v>-424.1801999299221</v>
+        <v>-433.9135539944856</v>
       </c>
       <c r="K52">
-        <v>-3441.394334274497</v>
+        <v>-3215.889176386278</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.00840335038988</v>
+        <v>38.76348170043195</v>
       </c>
       <c r="G53">
-        <v>615.5626730921704</v>
+        <v>647.1353676448867</v>
       </c>
       <c r="H53">
-        <v>2062.013380469789</v>
+        <v>1908.471033983545</v>
       </c>
       <c r="I53">
-        <v>1428.292314935426</v>
+        <v>1432.886248513108</v>
       </c>
       <c r="J53">
-        <v>-481.262832159576</v>
+        <v>-491.6266905808594</v>
       </c>
       <c r="K53">
-        <v>-3972.485427252266</v>
+        <v>-3886.334879443328</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>38.51536095394192</v>
+        <v>34.87873305268961</v>
       </c>
       <c r="G54">
-        <v>662.8595839908049</v>
+        <v>663.7200442922798</v>
       </c>
       <c r="H54">
-        <v>1896.717109566306</v>
+        <v>2006.313646647093</v>
       </c>
       <c r="I54">
-        <v>1552.982689670671</v>
+        <v>1480.986823119142</v>
       </c>
       <c r="J54">
-        <v>-514.6451758460898</v>
+        <v>-515.1571834449146</v>
       </c>
       <c r="K54">
-        <v>-4107.640918491902</v>
+        <v>-4374.564843139444</v>
       </c>
     </row>
   </sheetData>
